--- a/3. dataset/empirical-coexistence-microbes.xlsx
+++ b/3. dataset/empirical-coexistence-microbes.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Research/2. Projects/1. Current (15)/Leading (7)/coexistence-microbes/2. systematic reivew/4. data extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Research/2. Projects/1. Current (12)/Leading (5)/coexistence-microbes/4. Public GitHub repo/coexistence-microbes/3. dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40F6878-ED35-2342-A345-D6A87826A566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433AB556-FA89-FA4D-8BF0-879EFB2292B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="full_text_screening" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -1612,7 +1612,7 @@
   <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
